--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="10320" windowWidth="23070" xWindow="930" yWindow="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -350,6 +350,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -23,9 +23,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>This is neat!</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -54,7 +62,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -343,10 +351,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>This is neat!</t>
-        </is>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -41,6 +41,7 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
   </fonts>
   <fills>
     <fill>
@@ -58,12 +59,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" borderId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,6 +358,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -41,7 +41,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills>
     <fill>
@@ -59,14 +58,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf fontId="1" borderId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,11 +355,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -33,6 +33,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts/>
   <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40,6 +41,9 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills>
@@ -58,12 +62,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" borderId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +357,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,11 +42,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-    </font>
   </fonts>
-  <fills>
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -62,14 +59,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf fontId="1" borderId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +352,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -63,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView windowHeight="7755" windowWidth="15360" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ClickThroughRateSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName localSheetId="0" name="ALL_CLK">OFFSET(ClickThroughRateSheet!$B$3,0,0,COUNTA(ClickThroughRateSheet!$B:$B)-1)</definedName>
+    <definedName localSheetId="0" name="All_CTR">OFFSET(ClickThroughRateSheet!$D$3,0,0,COUNTA(ClickThroughRateSheet!$D:$D)-1)</definedName>
+    <definedName localSheetId="0" name="ALL_IMP">OFFSET(ClickThroughRateSheet!$C$3,0,0,COUNTA(ClickThroughRateSheet!$C:$C)-1)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,18 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>This is neat!</t>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>CTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts/>
+  <numFmts>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
   <fonts x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,6 +87,10 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +106,1224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sample</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Click Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ClickThroughRateSheet!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impressions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ClickThroughRateSheet!ALL_IMP</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>398503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>460983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="273028680"/>
+        <c:axId val="273028288"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ClickThroughRateSheet!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CTR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="oval"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>CTR Trend</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>ClickThroughRateSheet!All_CTR</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0614725610597661E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6421429857500169E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8621954353259985E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1676407285472443E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4887171962929256E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="273029072"/>
+        <c:axId val="273033776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273028680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273028288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273028288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Impressions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273028680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="273033776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Click-through Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273029072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="273029072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="273033776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,19 +1588,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>423</v>
+      </c>
+      <c r="C3" s="1">
+        <v>398503</v>
+      </c>
+      <c r="D3" s="4">
+        <f ref="D3:D7" si="0" t="shared">B3/C3</f>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>757</v>
+      </c>
+      <c r="C4" s="1">
+        <v>460983</v>
+      </c>
+      <c r="D4" s="4">
+        <f si="0" t="shared"/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>235</v>
+      </c>
+      <c r="C5" s="1">
+        <v>342456</v>
+      </c>
+      <c r="D5" s="4">
+        <f si="0" t="shared"/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>145</v>
+      </c>
+      <c r="C6" s="1">
+        <v>235098</v>
+      </c>
+      <c r="D6" s="4">
+        <f si="0" t="shared"/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53843</v>
+      </c>
+      <c r="D7" s="4">
+        <f si="0" t="shared"/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -1597,7 +1597,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>This is neat!</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,8 +348,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>0.47568978777511184</v>
+      </c>
+      <c r="B1">
+        <v>0.21298007248749995</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.3303780960716638</v>
+      </c>
+      <c r="B2">
+        <v>0.24623383579351343</v>
       </c>
     </row>
   </sheetData>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -349,18 +349,18 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.47568978777511184</v>
+        <v>0.6959000800377888</v>
       </c>
       <c r="B1">
-        <v>0.21298007248749995</v>
+        <v>0.018499864711871483</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3303780960716638</v>
+        <v>0.364119517286541</v>
       </c>
       <c r="B2">
-        <v>0.24623383579351343</v>
+        <v>0.8607343968470482</v>
       </c>
     </row>
   </sheetData>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>This is neat!</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,19 +352,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1">
-        <v>0.6959000800377888</v>
-      </c>
-      <c r="B1">
-        <v>0.018499864711871483</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>0.364119517286541</v>
-      </c>
-      <c r="B2">
-        <v>0.8607343968470482</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>This is neat!</t>
+    <t xml:space="preserve">This is neat!</t>
   </si>
 </sst>
 </file>

--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\GitHub\xlsx-populate\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t xml:space="preserve">This is neat!</t>
+    <t xml:space="preserve">undefined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts/>
   <fonts x14ac:knownFonts="1">
     <font>
@@ -128,9 +131,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -158,14 +161,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -193,6 +213,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,13 +382,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -359,4 +418,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -9,13 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12795"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="17475" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,10 +23,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Johnson</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Johnson:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+C</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Script MT Bold"/>
+            <family val="4"/>
+          </rPr>
+          <t>o</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mple</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>x!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t xml:space="preserve">undefined</t>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Complex</t>
   </si>
 </sst>
 </file>
@@ -44,6 +119,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Script MT Bold"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills>
@@ -381,81 +482,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <f>1/B3</f>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\GitHub\xlsx-populate\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="17475" windowHeight="7035"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,94 +23,16 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Johnson</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Comment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Johnson:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-C</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Script MT Bold"/>
-            <family val="4"/>
-          </rPr>
-          <t>o</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mple</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>x!</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Complex</t>
+    <t xml:space="preserve">This is neat!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts/>
   <fonts x14ac:knownFonts="1">
     <font>
@@ -119,32 +41,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Script MT Bold"/>
-      <family val="4"/>
     </font>
   </fonts>
   <fills>
@@ -232,9 +128,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -262,31 +158,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -314,23 +193,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,39 +344,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
-        <f>1/B3</f>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="foo" sheetId="2" r:id="rId5" state="hidden"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -348,7 +349,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -360,4 +361,14 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+</worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="foo" sheetId="2" r:id="rId5" state="hidden"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -349,7 +348,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -361,14 +360,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData/>
-</worksheet>
 </file>
--- a/examples/basic/out.xlsx
+++ b/examples/basic/out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
